--- a/resources/smb.xlsx
+++ b/resources/smb.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuvaraj/PROJECT/Workspace/Rcvr_3_1_dev Chennai-barcode/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="18195" windowHeight="5955"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="18200" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,24 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>asia\\chautoscript</t>
-  </si>
-  <si>
-    <t>TeamI#di@</t>
-  </si>
-  <si>
-    <t>Tornado</t>
-  </si>
-  <si>
-    <t>10.33.18.20</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,6 +66,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -122,7 +117,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -155,9 +150,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +202,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,38 +395,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -408,7 +422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -420,7 +434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
